--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P12_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P12_trail11 Features.xlsx
@@ -5335,7 +5335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5346,29 +5346,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5389,115 +5387,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5514,72 +5502,66 @@
         <v>4.03764961855797e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.691224052152228</v>
+        <v>1.562287447036506e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.828581158135158</v>
+        <v>5.94000710964172e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.562287447036506e-06</v>
+        <v>0.04686924113499548</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.94000710964172e-06</v>
+        <v>0.1200572423144282</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.04686924113499548</v>
+        <v>0.01660940354322204</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1200572423144282</v>
+        <v>1.603856534389782</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01660940354322204</v>
+        <v>1.660156105701999</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.512079140288555</v>
+        <v>3.953881339809644</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.660156105701999</v>
+        <v>3.076261366777139e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.953881339809644</v>
+        <v>18046767.30494691</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.076261366777139e-14</v>
+        <v>6.034695348655486e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>18046767.30494691</v>
+        <v>10.0189467549934</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6.034695348655486e-06</v>
+        <v>0.0001140051236850061</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>10.0189467549934</v>
+        <v>7.62387326506183</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001140051236850061</v>
+        <v>1.368522692499483</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.62387326506183</v>
+        <v>0.006626370372252874</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.368522692499483</v>
+        <v>3.149534038296002</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.006626370372252874</v>
+        <v>0.9424998417849131</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.149534038296002</v>
+        <v>1.859627513439282</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9424998417849131</v>
+        <v>17</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.859627513439282</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2146939102723383</v>
       </c>
     </row>
@@ -5594,72 +5576,66 @@
         <v>3.758796640282419e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.788807205052545</v>
+        <v>1.562286469783905e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2.392849729958252</v>
+        <v>5.958691214639515e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.562286469783905e-06</v>
+        <v>0.048833117473857</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.958691214639515e-06</v>
+        <v>0.1304972948934387</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.048833117473857</v>
+        <v>0.01941347905130113</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1304972948934387</v>
+        <v>1.610137923700123</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01941347905130113</v>
+        <v>1.566240966271431</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.521786715628889</v>
+        <v>3.952489627833427</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.566240966271431</v>
+        <v>3.078428114285026e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.952489627833427</v>
+        <v>17953449.68053641</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.078428114285026e-14</v>
+        <v>6.0639914035545e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>17953449.68053641</v>
+        <v>9.922585145355205</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.0639914035545e-06</v>
+        <v>0.0001161174412382746</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>9.922585145355205</v>
+        <v>7.773719047057634</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001161174412382746</v>
+        <v>1.364977148971336</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.773719047057634</v>
+        <v>0.007017059164576546</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.364977148971336</v>
+        <v>3.128603897643255</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.007017059164576546</v>
+        <v>0.9421897266391888</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.128603897643255</v>
+        <v>1.845479533362804</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9421897266391888</v>
+        <v>16</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.845479533362804</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2114564210533028</v>
       </c>
     </row>
@@ -5674,72 +5650,66 @@
         <v>3.449282762811729e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.850629543436325</v>
+        <v>1.546236939066923e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.902073957482552</v>
+        <v>5.97657521928569e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.546236939066923e-06</v>
+        <v>0.05022729116076317</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.97657521928569e-06</v>
+        <v>0.1441514292883123</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.05022729116076317</v>
+        <v>0.02330108852737136</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1441514292883123</v>
+        <v>1.612293619777832</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02330108852737136</v>
+        <v>1.521999976659361</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.524049320814072</v>
+        <v>4.007358600612545</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.521999976659361</v>
+        <v>2.994705222793316e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.007358600612545</v>
+        <v>18195342.77255027</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.994705222793316e-14</v>
+        <v>5.968822467377984e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>18195342.77255027</v>
+        <v>9.914585513019427</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.968822467377984e-06</v>
+        <v>0.0001239851989576</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>9.914585513019427</v>
+        <v>8.134957713003036</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001239851989576</v>
+        <v>1.362764775808197</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.134957713003036</v>
+        <v>0.008205035090520148</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.362764775808197</v>
+        <v>3.117755270531463</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.008205035090520148</v>
+        <v>0.9409815387130769</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.117755270531463</v>
+        <v>1.82667913673653</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9409815387130769</v>
+        <v>16</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.82667913673653</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1983139256910985</v>
       </c>
     </row>
@@ -5754,72 +5724,66 @@
         <v>3.123080191630041e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-1.852660716994627</v>
+        <v>1.493182685044374e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>3.242457292073656</v>
+        <v>5.993168323940247e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.493182685044374e-06</v>
+        <v>0.05047994281748495</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.993168323940247e-06</v>
+        <v>0.160184093804041</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.05047994281748495</v>
+        <v>0.0282030136394487</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.160184093804041</v>
+        <v>1.619527216703557</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.0282030136394487</v>
+        <v>1.48455866405901</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.530925385830698</v>
+        <v>4.196387063924745</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.48455866405901</v>
+        <v>2.723495555091233e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.196387063924745</v>
+        <v>19998375.91365004</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.723495555091233e-14</v>
+        <v>5.437807954149387e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>19998375.91365004</v>
+        <v>10.89221301541931</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.437807954149387e-06</v>
+        <v>0.0001395710610279797</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>10.89221301541931</v>
+        <v>8.632170923328745</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001395710610279797</v>
+        <v>1.371121831306552</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.632170923328745</v>
+        <v>0.01040005035959001</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.371121831306552</v>
+        <v>3.071612034603977</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01040005035959001</v>
+        <v>0.9414408164527742</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.071612034603977</v>
+        <v>1.858245587183244</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9414408164527742</v>
+        <v>16</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.858245587183244</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1810189609906394</v>
       </c>
     </row>
@@ -5834,72 +5798,66 @@
         <v>2.801810606344345e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-1.773770510451896</v>
+        <v>1.40200499201668e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>3.306350686749858</v>
+        <v>6.007933096416652e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.40200499201668e-06</v>
+        <v>0.04887756086209261</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.007933096416652e-06</v>
+        <v>0.1763839567855171</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.04887756086209261</v>
+        <v>0.03349018986922485</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1763839567855171</v>
+        <v>1.664665772312568</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03349018986922485</v>
+        <v>1.58697285187472</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.582617480679955</v>
+        <v>4.157398642773029</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.58697285187472</v>
+        <v>2.669514261315459e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.157398642773029</v>
+        <v>18852529.81185982</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.669514261315459e-14</v>
+        <v>5.83533347553361e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>18852529.81185982</v>
+        <v>9.48793100206216</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.83533347553361e-06</v>
+        <v>0.000127179636150507</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>9.48793100206216</v>
+        <v>8.76110462009782</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.000127179636150507</v>
+        <v>1.26585932230233</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.76110462009782</v>
+        <v>0.009761921502636736</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.26585932230233</v>
+        <v>3.09210442307396</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.009761921502636736</v>
+        <v>0.9486435520185525</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.09210442307396</v>
+        <v>1.85116927614685</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9486435520185525</v>
+        <v>15</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.85116927614685</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1950724870113397</v>
       </c>
     </row>
@@ -5914,72 +5872,66 @@
         <v>2.509695971373959e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-1.610746407151653</v>
+        <v>1.284458012246873e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>3.079613794974494</v>
+        <v>6.020452162631467e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.284458012246873e-06</v>
+        <v>0.04520838212454811</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.020452162631467e-06</v>
+        <v>0.1902588425042978</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.04520838212454811</v>
+        <v>0.03822761434886592</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1902588425042978</v>
+        <v>1.673647164643447</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03822761434886592</v>
+        <v>1.601831291717879</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.598166300759314</v>
+        <v>4.511177467540199</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.601831291717879</v>
+        <v>2.267230944568619e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.511177467540199</v>
+        <v>21931107.88007883</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.267230944568619e-14</v>
+        <v>5.044391568882176e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>21931107.88007883</v>
+        <v>10.90477986501459</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.044391568882176e-06</v>
+        <v>0.000113847813109501</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>10.90477986501459</v>
+        <v>8.134078053523163</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.000113847813109501</v>
+        <v>1.241660080986169</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.134078053523163</v>
+        <v>0.007532538563415053</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.241660080986169</v>
+        <v>3.077284405881739</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.007532538563415053</v>
+        <v>0.9486317371578068</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.077284405881739</v>
+        <v>1.840281505542375</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9486317371578068</v>
+        <v>15</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.840281505542375</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2203877260233337</v>
       </c>
     </row>
@@ -5994,72 +5946,66 @@
         <v>2.258887743057833e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-1.368108050681633</v>
+        <v>1.175300851888909e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>2.578591771369343</v>
+        <v>6.030705048375565e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.175300851888909e-06</v>
+        <v>0.04090404713776906</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>6.030705048375565e-06</v>
+        <v>0.2042591561682905</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.04090404713776906</v>
+        <v>0.04338225345705844</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2042591561682905</v>
+        <v>1.67938519502912</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.04338225345705844</v>
+        <v>1.644853215867295</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.610008338454805</v>
+        <v>4.617179201976503</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.644853215867295</v>
+        <v>2.16432324469885e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.617179201976503</v>
+        <v>23005285.35546099</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.16432324469885e-14</v>
+        <v>4.809768428673302e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>23005285.35546099</v>
+        <v>11.45453260919337</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.809768428673302e-06</v>
+        <v>0.0001106928527329402</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>11.45453260919337</v>
+        <v>7.163914555429495</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001106928527329402</v>
+        <v>1.310869974074916</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.163914555429495</v>
+        <v>0.005680942253860646</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.310869974074916</v>
+        <v>3.206475135738217</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.005680942253860646</v>
+        <v>0.9487176405648695</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.206475135738217</v>
+        <v>1.792316042001632</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9487176405648695</v>
+        <v>15</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.792316042001632</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.219299588108031</v>
       </c>
     </row>
@@ -6074,72 +6020,66 @@
         <v>2.04677856570916e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-1.035839774998972</v>
+        <v>1.077844444064687e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1.711724702395724</v>
+        <v>6.03902179046438e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.077844444064687e-06</v>
+        <v>0.03615322211323928</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>6.03902179046438e-06</v>
+        <v>0.2187149091193803</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.03615322211323928</v>
+        <v>0.04912736306606549</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2187149091193803</v>
+        <v>1.668270418464587</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.04912736306606549</v>
+        <v>1.569736299894735</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.60127778428687</v>
+        <v>4.615649146791293</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.569736299894735</v>
+        <v>2.165758398356672e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.615649146791293</v>
+        <v>23028749.90149872</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.165758398356672e-14</v>
+        <v>4.789260524025066e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>23028749.90149872</v>
+        <v>11.48552188521737</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.789260524025066e-06</v>
+        <v>0.0001144753465881143</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>11.48552188521737</v>
+        <v>6.94523295681865</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001144753465881143</v>
+        <v>1.382597317441237</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>6.94523295681865</v>
+        <v>0.005521862675997019</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.382597317441237</v>
+        <v>3.239591612201359</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.005521862675997019</v>
+        <v>0.9489436792253831</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.239591612201359</v>
+        <v>1.813431627890099</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9489436792253831</v>
+        <v>11</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.813431627890099</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2105272208370229</v>
       </c>
     </row>
@@ -6154,72 +6094,66 @@
         <v>1.880329414243961e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.6544248312745589</v>
+        <v>9.668847033666188e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.6000298259449606</v>
+        <v>6.045392189968055e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>9.668847033666188e-07</v>
+        <v>0.02807595403008585</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>6.045392189968055e-06</v>
+        <v>0.2274935261173634</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.02807595403008585</v>
+        <v>0.05251334283736474</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2274935261173634</v>
+        <v>1.671437496233945</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.05251334283736474</v>
+        <v>1.536429909266016</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.604703457500068</v>
+        <v>4.629343476658013</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.536429909266016</v>
+        <v>2.152964038793779e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.629343476658013</v>
+        <v>23521264.5037066</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.152964038793779e-14</v>
+        <v>4.703462158104653e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>23521264.5037066</v>
+        <v>11.91127104403051</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.703462158104653e-06</v>
+        <v>0.0001281510769285015</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>11.91127104403051</v>
+        <v>7.858191757736516</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001281510769285015</v>
+        <v>1.374523256710801</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.858191757736516</v>
+        <v>0.007913479924032307</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.374523256710801</v>
+        <v>3.162543673723421</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.007913479924032307</v>
+        <v>0.9506782589822563</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.162543673723421</v>
+        <v>1.802075199285979</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9506782589822563</v>
+        <v>11</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.802075199285979</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2028656582396277</v>
       </c>
     </row>
@@ -6234,72 +6168,66 @@
         <v>1.777116399728223e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.3641277600217822</v>
+        <v>8.32343766632783e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.2170288049696434</v>
+        <v>6.049427227537731e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>8.32343766632783e-07</v>
+        <v>0.01542935012964657</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>6.049427227537731e-06</v>
+        <v>0.2217834475296159</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.01542935012964657</v>
+        <v>0.04938229381140926</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2217834475296159</v>
+        <v>1.677910394565753</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.04938229381140926</v>
+        <v>1.495534821195886</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.614995818893249</v>
+        <v>4.757559504445124</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.495534821195886</v>
+        <v>2.038483157157753e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.757559504445124</v>
+        <v>25223760.90021788</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.038483157157753e-14</v>
+        <v>4.39295344261572e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>25223760.90021788</v>
+        <v>12.96960679231663</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.39295344261572e-06</v>
+        <v>0.0001583178617182395</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>12.96960679231663</v>
+        <v>10.83240834847715</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001583178617182395</v>
+        <v>1.122707284519558</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.83240834847715</v>
+        <v>0.0185771873935788</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.122707284519558</v>
+        <v>2.854490792940468</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0185771873935788</v>
+        <v>0.9508670839478244</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.854490792940468</v>
+        <v>1.774358429842273</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9508670839478244</v>
+        <v>53</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.774358429842273</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.21583966263324</v>
       </c>
     </row>
@@ -6314,72 +6242,66 @@
         <v>1.744327446320373e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.2729004894156341</v>
+        <v>6.906100416194387e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.4314637250465037</v>
+        <v>6.050810248095037e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>6.906100416194387e-07</v>
+        <v>0.0004177156582769287</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>6.050810248095037e-06</v>
+        <v>0.2011663619070749</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.0004177156582769287</v>
+        <v>0.0404296506710008</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2011663619070749</v>
+        <v>1.699980174487637</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.0404296506710008</v>
+        <v>1.510138955360278</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.638729684218911</v>
+        <v>4.710854234998362</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.510138955360278</v>
+        <v>1.757272061161472e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.710854234998362</v>
+        <v>30238474.08479587</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.757272061161472e-14</v>
+        <v>3.71578393970605e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>30238474.08479587</v>
+        <v>16.06788621703965</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.71578393970605e-06</v>
+        <v>0.0001946166371878156</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>16.06788621703965</v>
+        <v>12.79563682629976</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001946166371878156</v>
+        <v>1.05528610965549</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>12.79563682629976</v>
+        <v>0.03186425539928305</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.05528610965549</v>
+        <v>2.677075279788394</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.03186425539928305</v>
+        <v>0.9530257625851754</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.677075279788394</v>
+        <v>1.830329975295916</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9530257625851754</v>
+        <v>76</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.830329975295916</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2463206170356839</v>
       </c>
     </row>
@@ -6394,72 +6316,66 @@
         <v>1.765857011709881e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.3147504901313833</v>
+        <v>7.040956254023977e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.3786265278638403</v>
+        <v>6.049689745502566e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>7.040956254023977e-07</v>
+        <v>-0.01260672972272979</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>6.049689745502566e-06</v>
+        <v>0.1780308895185702</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.01260672972272979</v>
+        <v>0.03182956059773796</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1780308895185702</v>
+        <v>1.814026428047602</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.03182956059773796</v>
+        <v>1.526667378541433</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.770554173754342</v>
+        <v>5.054570311849205</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.526667378541433</v>
+        <v>1.384084536349808e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.054570311849205</v>
+        <v>36330472.65998346</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.384084536349808e-14</v>
+        <v>3.24812504190546e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>36330472.65998346</v>
+        <v>18.26857669080085</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>3.24812504190546e-06</v>
+        <v>0.0001951011969814491</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>18.26857669080085</v>
+        <v>10.94951498771725</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001951011969814491</v>
+        <v>1.414839206336706</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.94951498771725</v>
+        <v>0.02339104899711874</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.414839206336706</v>
+        <v>3.020776280334696</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02339104899711874</v>
+        <v>0.9585503365765512</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.020776280334696</v>
+        <v>1.630875675041397</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9585503365765512</v>
+        <v>75</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.630875675041397</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2939544433562162</v>
       </c>
     </row>
@@ -6474,72 +6390,66 @@
         <v>1.818496998729649e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.3842853491524537</v>
+        <v>7.200568687674711e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.3477612096458897</v>
+        <v>6.046542513086581e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>7.200568687674711e-07</v>
+        <v>-0.02159605670088215</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>6.046542513086581e-06</v>
+        <v>0.1608474003190921</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.02159605670088215</v>
+        <v>0.02633043997759393</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1608474003190921</v>
+        <v>1.84145776736356</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02633043997759393</v>
+        <v>1.647018032557332</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.815907248545306</v>
+        <v>6.33362668417387</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.647018032557332</v>
+        <v>3.742786963158381e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>6.33362668417387</v>
+        <v>128937798.3770294</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.742786963158381e-15</v>
+        <v>9.187075165753968e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>128937798.3770294</v>
+        <v>62.2236680196445</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>9.187075165753968e-07</v>
+        <v>0.0001463613530833192</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>62.2236680196445</v>
+        <v>9.839214133067598</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001463613530833192</v>
+        <v>1.40175681752614</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.839214133067598</v>
+        <v>0.01416926231511891</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.40175681752614</v>
+        <v>3.349728588308422</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01416926231511891</v>
+        <v>0.9585482659234053</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.349728588308422</v>
+        <v>1.548584742530127</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9585482659234053</v>
+        <v>75</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.548584742530127</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.3869186553314001</v>
       </c>
     </row>
@@ -6554,72 +6464,66 @@
         <v>1.884051586208218e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.4382481608326398</v>
+        <v>7.327105306017971e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.3774442067329473</v>
+        <v>6.042106025744495e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>7.327105306017971e-07</v>
+        <v>-0.02555830384648744</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6.042106025744495e-06</v>
+        <v>0.1520607530421506</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.02555830384648744</v>
+        <v>0.02377468575516759</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1520607530421506</v>
+        <v>1.871607183329178</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02377468575516759</v>
+        <v>1.921401335584247</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.859559292351413</v>
+        <v>5.039386112032945</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.921401335584247</v>
+        <v>1.723362405460906e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.039386112032945</v>
+        <v>281452487.5027755</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.723362405460906e-15</v>
+        <v>4.239235003317184e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>281452487.5027755</v>
+        <v>136.5170193199192</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.239235003317184e-07</v>
+        <v>0.0001524209540721206</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>136.5170193199192</v>
+        <v>8.802247425030345</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001524209540721206</v>
+        <v>1.693825150744033</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.802247425030345</v>
+        <v>0.01180950841535597</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.693825150744033</v>
+        <v>3.431047673684322</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01180950841535597</v>
+        <v>0.9603264153914504</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.431047673684322</v>
+        <v>1.429581664894996</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9603264153914504</v>
+        <v>75</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.429581664894996</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.4188887084064819</v>
       </c>
     </row>
@@ -6634,72 +6538,66 @@
         <v>1.952208676641118e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.4725347219537057</v>
+        <v>7.378750790568927e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.4425205284274742</v>
+        <v>6.037099678811692e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>7.378750790568927e-07</v>
+        <v>-0.02628951768193287</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>6.037099678811692e-06</v>
+        <v>0.1462061229373193</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.02628951768193287</v>
+        <v>0.02206733218073214</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1462061229373193</v>
+        <v>1.875980433830372</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02206733218073214</v>
+        <v>2.166592078888823</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.867115599132078</v>
+        <v>5.120594871192605</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.166592078888823</v>
+        <v>1.634474642489105e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.120594871192605</v>
+        <v>293641019.7456523</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.634474642489105e-15</v>
+        <v>4.059218142913584e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>293641019.7456523</v>
+        <v>140.9326552834861</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.059218142913584e-07</v>
+        <v>0.0001579778701789313</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>140.9326552834861</v>
+        <v>9.254498883560794</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001579778701789313</v>
+        <v>1.545054536666411</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.254498883560794</v>
+        <v>0.01353013310944719</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.545054536666411</v>
+        <v>3.363682516830537</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01353013310944719</v>
+        <v>0.9603226997385156</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.363682516830537</v>
+        <v>1.418325845384897</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9603226997385156</v>
+        <v>73</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.418325845384897</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.4596862782824455</v>
       </c>
     </row>
@@ -6714,72 +6612,66 @@
         <v>2.017825006177437e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.4882784252408659</v>
+        <v>7.378974129957259e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.5316060981824871</v>
+        <v>6.031921263648748e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>7.378974129957259e-07</v>
+        <v>-0.0257671622971017</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>6.031921263648748e-06</v>
+        <v>0.1413321933631641</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.0257671622971017</v>
+        <v>0.02063864662268192</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1413321933631641</v>
+        <v>1.87362030793243</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02063864662268192</v>
+        <v>2.255005712576941</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.858591762526415</v>
+        <v>4.961483567864494</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.255005712576941</v>
+        <v>1.740988515773988e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.961483567864494</v>
+        <v>266034613.6153371</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.740988515773988e-15</v>
+        <v>4.457786125832823e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>266034613.6153371</v>
+        <v>123.2174448423997</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.457786125832823e-07</v>
+        <v>0.0001461604696506227</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>123.2174448423997</v>
+        <v>10.95592013777765</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001461604696506227</v>
+        <v>1.164247269255799</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.95592013777765</v>
+        <v>0.01754396068850422</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.164247269255799</v>
+        <v>3.230857116638224</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01754396068850422</v>
+        <v>0.9617535664928938</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.230857116638224</v>
+        <v>1.462043683838347</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9617535664928938</v>
+        <v>66</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.462043683838347</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.4718045810137194</v>
       </c>
     </row>
@@ -6794,72 +6686,66 @@
         <v>2.078964607348821e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.487729905205224</v>
+        <v>7.378974129957259e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.6364943775225327</v>
+        <v>6.026693534840684e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>7.378974129957259e-07</v>
+        <v>-0.02538759118343354</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>6.026693534840684e-06</v>
+        <v>0.13701550603971</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.02538759118343354</v>
+        <v>0.01941764945090625</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.13701550603971</v>
+        <v>1.858135766349894</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01941764945090625</v>
+        <v>2.287529913485208</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.83253670309167</v>
+        <v>4.33227851127944</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.287529913485208</v>
+        <v>2.283422541071112e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.33227851127944</v>
+        <v>200799934.0653042</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.283422541071112e-15</v>
+        <v>5.886749712016111e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>200799934.0653042</v>
+        <v>92.06899778282435</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>5.886749712016111e-07</v>
+        <v>0.0001339869252584954</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>92.06899778282435</v>
+        <v>11.33294903847189</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001339869252584954</v>
+        <v>1.099007844097282</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>11.33294903847189</v>
+        <v>0.0172087090797317</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.099007844097282</v>
+        <v>3.176073360493284</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.0172087090797317</v>
+        <v>0.9611049086468678</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.176073360493284</v>
+        <v>1.527859584255388</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9611049086468678</v>
+        <v>69</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.527859584255388</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.4527868603904969</v>
       </c>
     </row>
@@ -6874,72 +6760,66 @@
         <v>2.137172618986646e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.4753771569475422</v>
+        <v>7.378974129957259e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.7472006050427118</v>
+        <v>6.021289884665237e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>7.378974129957259e-07</v>
+        <v>-0.0260517951014098</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6.021289884665237e-06</v>
+        <v>0.1326092105988546</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.0260517951014098</v>
+        <v>0.01826310951498797</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1326092105988546</v>
+        <v>1.853515438339172</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01826310951498797</v>
+        <v>2.135748083203067</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.825408395792487</v>
+        <v>4.132382885726395</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.135748083203067</v>
+        <v>2.509677473571326e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.132382885726395</v>
+        <v>183608593.7355439</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2.509677473571326e-15</v>
+        <v>6.44321624810162e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>183608593.7355439</v>
+        <v>84.60653734251783</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>6.44321624810162e-07</v>
+        <v>0.0001275759004138717</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>84.60653734251783</v>
+        <v>9.186023183778298</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001275759004138717</v>
+        <v>1.297224847962694</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.186023183778298</v>
+        <v>0.01076524000273478</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.297224847962694</v>
+        <v>3.346319301403644</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01076524000273478</v>
+        <v>0.9608282094545672</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.346319301403644</v>
+        <v>1.483485414066376</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9608282094545672</v>
+        <v>76</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.483485414066376</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.3952230836864786</v>
       </c>
     </row>
@@ -6954,72 +6834,66 @@
         <v>2.193349095694209e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.4511860929503411</v>
+        <v>7.378974129957259e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.8606603140723048</v>
+        <v>6.015456081226883e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>7.378974129957259e-07</v>
+        <v>-0.02801840634291818</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>6.015456081226883e-06</v>
+        <v>0.1268213221492993</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.02801840634291818</v>
+        <v>0.01686547382847859</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1268213221492993</v>
+        <v>1.846652799946498</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01686547382847859</v>
+        <v>2.064796450547931</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.813514337792544</v>
+        <v>4.111476650513814</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.064796450547931</v>
+        <v>2.535265021655747e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.111476650513814</v>
+        <v>189765322.2618511</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.535265021655747e-15</v>
+        <v>6.235854782700545e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>189765322.2618511</v>
+        <v>91.29711820890931</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>6.235854782700545e-07</v>
+        <v>0.0001162558326141391</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>91.29711820890931</v>
+        <v>7.429758177607296</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001162558326141391</v>
+        <v>1.441696034673951</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>7.429758177607296</v>
+        <v>0.006417473857581482</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.441696034673951</v>
+        <v>3.419923768746845</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.006417473857581482</v>
+        <v>0.9603681694071696</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.419923768746845</v>
+        <v>1.530017537685883</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9603681694071696</v>
+        <v>76</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.530017537685883</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.4010629275647375</v>
       </c>
     </row>
@@ -7034,72 +6908,66 @@
         <v>2.24496575926353e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.4111170391078393</v>
+        <v>7.378974129957259e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.9739692240964328</v>
+        <v>6.0089155028818e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>7.378974129957259e-07</v>
+        <v>-0.03089339974836064</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>6.0089155028818e-06</v>
+        <v>0.1185358734872839</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.03089339974836064</v>
+        <v>0.01499922439067031</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1185358734872839</v>
+        <v>1.848136459804272</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01499922439067031</v>
+        <v>1.957906815962188</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.817191198016169</v>
+        <v>4.48029848393497</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.957906815962188</v>
+        <v>2.9110904281413e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.48029848393497</v>
+        <v>167396588.7139533</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.9110904281413e-15</v>
+        <v>7.078900980942649e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>167396588.7139533</v>
+        <v>81.57346368776629</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>7.078900980942649e-07</v>
+        <v>0.0001095288827611125</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>81.57346368776629</v>
+        <v>6.765084539447493</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001095288827611125</v>
+        <v>1.561214542337187</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>6.765084539447493</v>
+        <v>0.005012739245530711</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.561214542337187</v>
+        <v>3.409817501322646</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.005012739245530711</v>
+        <v>0.9591782258063206</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.409817501322646</v>
+        <v>1.535791416024899</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9591782258063206</v>
+        <v>76</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.535791416024899</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.4259262922001409</v>
       </c>
     </row>
@@ -7114,72 +6982,66 @@
         <v>2.285794100925986e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.3544992832395825</v>
+        <v>7.378974129957259e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.075179231454638</v>
+        <v>6.001603425991942e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>7.378974129957259e-07</v>
+        <v>-0.03332162958511187</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>6.001603425991942e-06</v>
+        <v>0.110159135033314</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.03332162958511187</v>
+        <v>0.01323899953694321</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.110159135033314</v>
+        <v>1.854326688591578</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.01323899953694321</v>
+        <v>2.065740307627196</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.824969604858975</v>
+        <v>4.552230006662493</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.065740307627196</v>
+        <v>4.284469411874571e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.552230006662493</v>
+        <v>117424322.7797064</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>4.284469411874571e-15</v>
+        <v>1.010346184274106e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>117424322.7797064</v>
+        <v>59.07628472218013</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.010346184274106e-06</v>
+        <v>0.0001158230058780087</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>59.07628472218013</v>
+        <v>7.092918013487234</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001158230058780087</v>
+        <v>1.458322856176952</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>7.092918013487234</v>
+        <v>0.00582699588644914</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.458322856176952</v>
+        <v>3.280879843824106</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.00582699588644914</v>
+        <v>0.9606811227822406</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.280879843824106</v>
+        <v>1.499370414234864</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9606811227822406</v>
+        <v>76</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.499370414234864</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.3701828534822763</v>
       </c>
     </row>
@@ -7194,72 +7056,66 @@
         <v>2.309535526943114e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.287797406107663</v>
+        <v>7.378974129957259e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.150090503869576</v>
+        <v>5.993899539643344e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>7.378974129957259e-07</v>
+        <v>-0.03307542968727411</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>5.993899539643344e-06</v>
+        <v>0.108783364296276</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.03307542968727411</v>
+        <v>0.0129222248788744</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.108783364296276</v>
+        <v>1.867826951736899</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.0129222248788744</v>
+        <v>2.055226404319022</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.841919003826712</v>
+        <v>3.97369660797312</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.055226404319022</v>
+        <v>6.404709922032312e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.97369660797312</v>
+        <v>79422823.51240525</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>6.404709922032312e-15</v>
+        <v>1.501074689616094e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>79422823.51240525</v>
+        <v>40.40081344300406</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.501074689616094e-06</v>
+        <v>0.0001389000824251551</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>40.40081344300406</v>
+        <v>8.29022280378071</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001389000824251551</v>
+        <v>1.295790534535045</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.29022280378071</v>
+        <v>0.009546296270434731</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.295790534535045</v>
+        <v>3.05177492640207</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.009546296270434731</v>
+        <v>0.9609158644899748</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.05177492640207</v>
+        <v>1.536485600221184</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9609158644899748</v>
+        <v>76</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.536485600221184</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2768210663910913</v>
       </c>
     </row>
@@ -7274,72 +7130,66 @@
         <v>2.314629067585059e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.2205135269564011</v>
+        <v>7.378974129957259e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.190006236883993</v>
+        <v>5.986543390832601e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>7.378974129957259e-07</v>
+        <v>-0.03007279813459826</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>5.986543390832601e-06</v>
+        <v>0.1148596807204726</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.03007279813459826</v>
+        <v>0.01408912103825348</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1148596807204726</v>
+        <v>1.875595902822109</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01408912103825348</v>
+        <v>1.762563864445637</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.856280051042551</v>
+        <v>3.713373677899294</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.762563864445637</v>
+        <v>7.695405853651573e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.713373677899294</v>
+        <v>65249511.72679788</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>7.695405853651573e-15</v>
+        <v>1.832013572997893e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>65249511.72679788</v>
+        <v>32.76318103803235</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.832013572997893e-06</v>
+        <v>0.0001711152725435036</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>32.76318103803235</v>
+        <v>9.967651003198233</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001711152725435036</v>
+        <v>1.216469203666501</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.967651003198233</v>
+        <v>0.01700099817114191</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.216469203666501</v>
+        <v>2.753921974950727</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01700099817114191</v>
+        <v>0.9596471281100293</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.753921974950727</v>
+        <v>1.509881272395171</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9596471281100293</v>
+        <v>75</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.509881272395171</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2278055059729645</v>
       </c>
     </row>
@@ -7354,72 +7204,66 @@
         <v>2.303254526253484e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.1626724111822193</v>
+        <v>7.378974129957259e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.189459442833135</v>
+        <v>5.980162843402048e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>7.378974129957259e-07</v>
+        <v>-0.02465497355228528</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>5.980162843402048e-06</v>
+        <v>0.1277679013939032</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.02465497355228528</v>
+        <v>0.01691747584766939</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1277679013939032</v>
+        <v>1.862197248811273</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.01691747584766939</v>
+        <v>1.670198675229757</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.835370655437528</v>
+        <v>4.278938296754911</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.670198675229757</v>
+        <v>1.077105689403716e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.278938296754911</v>
+        <v>46307374.65727244</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.077105689403716e-14</v>
+        <v>2.57129335299092e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>46307374.65727244</v>
+        <v>23.09716302116151</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>2.57129335299092e-06</v>
+        <v>0.0001801862917236304</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>23.09716302116151</v>
+        <v>11.1616870054097</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001801862917236304</v>
+        <v>1.11033833033691</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>11.1616870054097</v>
+        <v>0.02244819505485774</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.11033833033691</v>
+        <v>2.606881062403208</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.02244819505485774</v>
+        <v>0.958819605755214</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.606881062403208</v>
+        <v>1.512611969150695</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.958819605755214</v>
+        <v>75</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.512611969150695</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.2270052709420883</v>
       </c>
     </row>
@@ -7434,72 +7278,66 @@
         <v>2.280677572691433e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.1266190512315298</v>
+        <v>7.378974129957259e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.15472712931091</v>
+        <v>5.975321409026341e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>7.378974129957259e-07</v>
+        <v>-0.01756400093572974</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>5.975321409026341e-06</v>
+        <v>0.1454347532490489</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.01756400093572974</v>
+        <v>0.02144551156209115</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1454347532490489</v>
+        <v>1.698997161235857</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.02144551156209115</v>
+        <v>1.585653327399261</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.64643787146881</v>
+        <v>6.850595565432238</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.585653327399261</v>
+        <v>1.632357082631306e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>6.850595565432238</v>
+        <v>32857916.98587957</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.632357082631306e-14</v>
+        <v>3.290276885434272e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>32857916.98587957</v>
+        <v>17.62362422177631</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>3.290276885434272e-06</v>
+        <v>0.0001606281829814925</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>17.62362422177631</v>
+        <v>11.21419934106978</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001606281829814925</v>
+        <v>1.086397785559913</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>11.21419934106978</v>
+        <v>0.02020032190082423</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.086397785559913</v>
+        <v>2.800363166497295</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.02020032190082423</v>
+        <v>0.9492520129238657</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.800363166497295</v>
+        <v>1.657642274720875</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9492520129238657</v>
+        <v>34</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.657642274720875</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.2472378991599739</v>
       </c>
     </row>
@@ -7514,72 +7352,66 @@
         <v>2.254405715906365e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.1145173116578979</v>
+        <v>7.378974129957259e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.112443839050858</v>
+        <v>5.971836146496627e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>7.378974129957259e-07</v>
+        <v>-0.01408262138555893</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>5.971836146496627e-06</v>
+        <v>0.1532332731381921</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.01408262138555893</v>
+        <v>0.02367493284183926</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1532332731381921</v>
+        <v>1.653282132687459</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.02367493284183926</v>
+        <v>1.48498487720325</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.588903880364298</v>
+        <v>4.741538365252666</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.48498487720325</v>
+        <v>4.821742025829436e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.741538365252666</v>
+        <v>10984318.44871589</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>4.821742025829436e-14</v>
+        <v>9.625805009910323e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>10984318.44871589</v>
+        <v>5.817684981581601</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>9.625805009910323e-06</v>
+        <v>0.0002510258425888784</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>5.817684981581601</v>
+        <v>9.378035215264052</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0002510258425888784</v>
+        <v>1.976457119692936</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>9.378035215264052</v>
+        <v>0.02207710646141724</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.976457119692936</v>
+        <v>2.847324564963654</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.02207710646141724</v>
+        <v>0.9485088046519971</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.847324564963654</v>
+        <v>1.89401133533879</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9485088046519971</v>
+        <v>11</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.89401133533879</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1594528250859585</v>
       </c>
     </row>
@@ -7594,72 +7426,66 @@
         <v>2.222828252832521e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.1189843199200157</v>
+        <v>7.378974129957259e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.075070864920953</v>
+        <v>5.968544897467291e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>7.378974129957259e-07</v>
+        <v>-0.01591498357511335</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>5.968544897467291e-06</v>
+        <v>0.1539601332682581</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.01591498357511335</v>
+        <v>0.02395474210293406</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1539601332682581</v>
+        <v>1.607079060253049</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.02395474210293406</v>
+        <v>1.485773941537659</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.540028188906635</v>
+        <v>4.181782886116911</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.485773941537659</v>
+        <v>6.19897017547035e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.181782886116911</v>
+        <v>8712371.71359179</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>6.19897017547035e-14</v>
+        <v>1.194201370496895e-05</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>8712371.71359179</v>
+        <v>4.705354401655736</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1.194201370496895e-05</v>
+        <v>0.0001790553488023863</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>4.705354401655736</v>
+        <v>9.539847226204616</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001790553488023863</v>
+        <v>1.658051825813511</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>9.539847226204616</v>
+        <v>0.01629559185450598</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.658051825813511</v>
+        <v>3.038497850507815</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01629559185450598</v>
+        <v>0.9438288141588272</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.038497850507815</v>
+        <v>1.870368269918972</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9438288141588272</v>
+        <v>11</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.870368269918972</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1597869134362472</v>
       </c>
     </row>
@@ -7674,72 +7500,66 @@
         <v>2.180419930448184e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.1415638631298958</v>
+        <v>7.378974129957259e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.048452824371125</v>
+        <v>5.964654810193109e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>7.378974129957259e-07</v>
+        <v>-0.0194055827655197</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>5.964654810193109e-06</v>
+        <v>0.1553869510838575</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.0194055827655197</v>
+        <v>0.02452067606651114</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1553869510838575</v>
+        <v>1.596413119194662</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.02452067606651114</v>
+        <v>1.485462448114299</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.520024182762165</v>
+        <v>4.114938235434057</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.485462448114299</v>
+        <v>6.402002906068784e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.114938235434057</v>
+        <v>8569956.340719361</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>6.402002906068784e-14</v>
+        <v>1.215413022005804e-05</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>8569956.340719361</v>
+        <v>4.701896725008705</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>1.215413022005804e-05</v>
+        <v>0.0001314415125509459</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>4.701896725008705</v>
+        <v>9.793258654007198</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001314415125509459</v>
+        <v>1.203961043931822</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.793258654007198</v>
+        <v>0.01260628142165751</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.203961043931822</v>
+        <v>3.020267012022634</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01260628142165751</v>
+        <v>0.9440901576973357</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.020267012022634</v>
+        <v>1.860871046975077</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9440901576973357</v>
+        <v>11</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.860871046975077</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1809866316265017</v>
       </c>
     </row>
@@ -7754,72 +7574,66 @@
         <v>2.12790203645654e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.183746292076118</v>
+        <v>7.378974129957259e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.041707070251608</v>
+        <v>5.960131757387242e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>7.378974129957259e-07</v>
+        <v>-0.02250659552901159</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>5.960131757387242e-06</v>
+        <v>0.1587721085281161</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.02250659552901159</v>
+        <v>0.02571459327122295</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1587721085281161</v>
+        <v>1.595227401942704</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.02571459327122295</v>
+        <v>1.468383597207368</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.517354786653162</v>
+        <v>4.119787086101407</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.468383597207368</v>
+        <v>6.386941890772986e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.119787086101407</v>
+        <v>8799702.76172401</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>6.386941890772986e-14</v>
+        <v>1.192958067773029e-05</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>8799702.76172401</v>
+        <v>4.945713679784523</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>1.192958067773029e-05</v>
+        <v>0.0001290448044710464</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>4.945713679784523</v>
+        <v>9.429089068303737</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001290448044710464</v>
+        <v>1.199318502271592</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.429089068303737</v>
+        <v>0.01147307942827867</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.199318502271592</v>
+        <v>2.886759757289812</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01147307942827867</v>
+        <v>0.9441949007854664</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.886759757289812</v>
+        <v>1.880620068655616</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9441949007854664</v>
+        <v>14</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.880620068655616</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1894350056882489</v>
       </c>
     </row>
@@ -7834,72 +7648,66 @@
         <v>2.067483055022259e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.2480807592535985</v>
+        <v>7.378696721756486e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.065945689543074</v>
+        <v>5.955153633497894e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>7.378696721756486e-07</v>
+        <v>-0.02466366901817625</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>5.955153633497894e-06</v>
+        <v>0.1632431224739407</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.02466366901817625</v>
+        <v>0.02725662970796084</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1632431224739407</v>
+        <v>1.590424021636974</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.02725662970796084</v>
+        <v>1.461434844669627</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.512138025298089</v>
+        <v>4.120587318979971</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.461434844669627</v>
+        <v>6.384461397480357e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.120587318979971</v>
+        <v>8807060.885828178</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>6.384461397480357e-14</v>
+        <v>1.190977160842643e-05</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>8807060.885828178</v>
+        <v>4.952064160981156</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.190977160842643e-05</v>
+        <v>0.0001290378316915457</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>4.952064160981156</v>
+        <v>8.489397344316224</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001290378316915457</v>
+        <v>1.239293548092052</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.489397344316224</v>
+        <v>0.009299739402777436</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.239293548092052</v>
+        <v>2.980191684588561</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.009299739402777436</v>
+        <v>0.9448014215274261</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.980191684588561</v>
+        <v>1.868740759933627</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9448014215274261</v>
+        <v>14</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.868740759933627</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1846762600838849</v>
       </c>
     </row>
@@ -7914,72 +7722,66 @@
         <v>2.003947433992196e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.3321106115977109</v>
+        <v>7.261735692507134e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.123056261956685</v>
+        <v>5.950097597341739e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>7.261735692507134e-07</v>
+        <v>-0.02459225772407332</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>5.950097597341739e-06</v>
+        <v>0.1683499781925091</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.02459225772407332</v>
+        <v>0.02894584184211288</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1683499781925091</v>
+        <v>1.597255191206863</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.02894584184211288</v>
+        <v>1.498887322350948</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.519122285589433</v>
+        <v>4.10910988712042</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.498887322350948</v>
+        <v>6.420176946802689e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.10910988712042</v>
+        <v>8849177.127011405</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>6.420176946802689e-14</v>
+        <v>1.194339533394171e-05</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>8849177.127011405</v>
+        <v>5.027508043367936</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.194339533394171e-05</v>
+        <v>0.0001394112193596587</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>5.027508043367936</v>
+        <v>7.549931759610293</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001394112193596587</v>
+        <v>1.512617225198914</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>7.549931759610293</v>
+        <v>0.007946644378711473</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.512617225198914</v>
+        <v>3.072251105454515</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.007946644378711473</v>
+        <v>0.9455644185256736</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.072251105454515</v>
+        <v>1.847288446579287</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9455644185256736</v>
+        <v>14</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.847288446579287</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1668952203070846</v>
       </c>
     </row>
@@ -8356,7 +8158,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.37887769710689</v>
+        <v>1.389931527217518</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.325107490227636</v>
@@ -8445,7 +8247,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.392339014889482</v>
+        <v>1.401350188580752</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.378925569045078</v>
@@ -8534,7 +8336,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.426632096491642</v>
+        <v>1.431385635570921</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.452009272561863</v>
@@ -8623,7 +8425,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.441256508721803</v>
+        <v>1.442381106377089</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.407168087707069</v>
@@ -8712,7 +8514,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.474028363142739</v>
+        <v>1.474857395713637</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.270318679642926</v>
@@ -8801,7 +8603,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.506089423008876</v>
+        <v>1.507042624794585</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.402140432184878</v>
@@ -8890,7 +8692,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.535378734271857</v>
+        <v>1.531311859043673</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.403860472450102</v>
@@ -8979,7 +8781,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.514659054396313</v>
+        <v>1.52198930200811</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.356904983969349</v>
@@ -9068,7 +8870,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.519783448310992</v>
+        <v>1.526848654519317</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.21914874230489</v>
@@ -9157,7 +8959,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.526570907727476</v>
+        <v>1.534397382052849</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.492220252663762</v>
@@ -9246,7 +9048,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.491400067306226</v>
+        <v>1.50254984576132</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.274517699061497</v>
@@ -9335,7 +9137,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.479632083485814</v>
+        <v>1.49402525249574</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.226769919572604</v>
@@ -9424,7 +9226,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.470819996232188</v>
+        <v>1.484997673822031</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.322093697107664</v>
@@ -9513,7 +9315,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.475377986919637</v>
+        <v>1.493611652989454</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.264591796521383</v>
@@ -9602,7 +9404,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.435148546010238</v>
+        <v>1.458146727612741</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.179939204398074</v>
@@ -9691,7 +9493,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.44966022911615</v>
+        <v>1.476130583364773</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.221677067705047</v>
@@ -9780,7 +9582,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.444396813132577</v>
+        <v>1.468094020288781</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.262880366356194</v>
@@ -9869,7 +9671,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.445354701622208</v>
+        <v>1.466777366375828</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.299893946936003</v>
@@ -9958,7 +9760,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.441885585737765</v>
+        <v>1.462598961920134</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.323527199224453</v>
@@ -10047,7 +9849,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.442660745720423</v>
+        <v>1.465111590191429</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.242795005509458</v>
@@ -10136,7 +9938,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.445233535645969</v>
+        <v>1.469700857894794</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.300302051508211</v>
@@ -10225,7 +10027,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.450800239026628</v>
+        <v>1.475533919325637</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.379370409048677</v>
@@ -10314,7 +10116,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.446051659285523</v>
+        <v>1.468969274993632</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.240961261370517</v>
@@ -10403,7 +10205,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.465476459599075</v>
+        <v>1.487836773315454</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.399855339650893</v>
@@ -10492,7 +10294,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.476840875173384</v>
+        <v>1.500869032138434</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.367561793925062</v>
@@ -10581,7 +10383,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.510313762699262</v>
+        <v>1.533213005425461</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.433834997177708</v>
@@ -10670,7 +10472,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.523898884141444</v>
+        <v>1.545287284808468</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.23876956355158</v>
@@ -10759,7 +10561,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.53882154249659</v>
+        <v>1.562350278548394</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.209962211799976</v>
@@ -10848,7 +10650,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.538264580452018</v>
+        <v>1.56105650002338</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.301007043547619</v>
@@ -10937,7 +10739,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.601677597200574</v>
+        <v>1.61750556329327</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.301073775031328</v>
@@ -11026,7 +10828,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.584377989120824</v>
+        <v>1.597568831909428</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.297847699258862</v>
@@ -11115,7 +10917,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.577626762611679</v>
+        <v>1.597498240182855</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.348345501966352</v>
@@ -11204,7 +11006,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.576366895927265</v>
+        <v>1.603419599342241</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.249941813893658</v>
@@ -11293,7 +11095,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.585117432425896</v>
+        <v>1.612044441846292</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.347192669652909</v>
@@ -11382,7 +11184,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.594740114698789</v>
+        <v>1.620914924394178</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.298551470721466</v>
@@ -11471,7 +11273,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.595280137029499</v>
+        <v>1.620448285663068</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.335420344906102</v>
@@ -11560,7 +11362,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.589231281221289</v>
+        <v>1.613025070842319</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.261528533858186</v>
@@ -11649,7 +11451,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.560167526428822</v>
+        <v>1.584734426714246</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.274275763809744</v>
@@ -11738,7 +11540,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.555521542349508</v>
+        <v>1.58159673808505</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.248576239682631</v>
@@ -11827,7 +11629,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.553399608644007</v>
+        <v>1.580984834971167</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.235952602794079</v>
@@ -11916,7 +11718,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.538655784932244</v>
+        <v>1.569738783839135</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.258275701128625</v>
@@ -12005,7 +11807,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.521430476175714</v>
+        <v>1.555121284979067</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.377459292291423</v>
@@ -12094,7 +11896,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.510712659789708</v>
+        <v>1.543808339675681</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.32588662998557</v>
@@ -12183,7 +11985,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.468305700088323</v>
+        <v>1.479249668418308</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.156684945262852</v>
@@ -12272,7 +12074,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.448880290263617</v>
+        <v>1.477112868348875</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.167128575140507</v>
@@ -12361,7 +12163,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.449444156280246</v>
+        <v>1.472956476547733</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.123725260488907</v>
@@ -12450,7 +12252,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.435688161140535</v>
+        <v>1.460951156111737</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.235762460775991</v>
@@ -12539,7 +12341,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.435405512671639</v>
+        <v>1.459577957318425</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.187914745933339</v>
@@ -12628,7 +12430,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.440600296576475</v>
+        <v>1.465370255200493</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.246741968275037</v>
@@ -12717,7 +12519,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.432945447878319</v>
+        <v>1.455286793135375</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.224932726802227</v>
@@ -12806,7 +12608,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.428742481783947</v>
+        <v>1.45119595629128</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.185166424564315</v>
@@ -12895,7 +12697,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.448101317061981</v>
+        <v>1.471876919065748</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.068540182538155</v>
@@ -12984,7 +12786,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.476736350369257</v>
+        <v>1.500023663138236</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.19905057804215</v>
@@ -13073,7 +12875,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.471083572605445</v>
+        <v>1.493299407840379</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.281047603723183</v>
@@ -13162,7 +12964,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.471227737636061</v>
+        <v>1.492442711719077</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.25956040698429</v>
@@ -13251,7 +13053,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.487415536138374</v>
+        <v>1.507667798981311</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.17385161732353</v>
@@ -13340,7 +13142,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.504120138491411</v>
+        <v>1.519507478456102</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.133700510007259</v>
@@ -13429,7 +13231,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.512865576917303</v>
+        <v>1.526032922771199</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.227355660105844</v>
@@ -13518,7 +13320,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.581483478018406</v>
+        <v>1.60054975418352</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.37775536653351</v>
@@ -13607,7 +13409,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.585468105957213</v>
+        <v>1.59988373084878</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.452616278788781</v>
@@ -13696,7 +13498,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.588882570448734</v>
+        <v>1.607189088024656</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.559442817797056</v>
@@ -13785,7 +13587,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.620327038287082</v>
+        <v>1.635729035831324</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.750967411100665</v>
@@ -13874,7 +13676,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.627537115846995</v>
+        <v>1.641370177327512</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.683920460100504</v>
@@ -13963,7 +13765,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.613531285077452</v>
+        <v>1.626924969569596</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.782157804857656</v>
@@ -14052,7 +13854,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.616344345110525</v>
+        <v>1.634581066588329</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.570697943348741</v>
@@ -14141,7 +13943,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.599231567846305</v>
+        <v>1.618346947904313</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.784331010430139</v>
@@ -14230,7 +14032,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.578379709685727</v>
+        <v>1.600083777821042</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.867743043676533</v>
@@ -14319,7 +14121,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.58188366960202</v>
+        <v>1.604465841781536</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.816619891943256</v>
@@ -14408,7 +14210,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.63647243789612</v>
+        <v>1.661211114675337</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.005456276377231</v>
@@ -14497,7 +14299,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.654387299804224</v>
+        <v>1.683127167195264</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.06333505476328</v>
@@ -14586,7 +14388,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.667413902957752</v>
+        <v>1.699474174121369</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.964103743340456</v>
@@ -14675,7 +14477,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.672379237666827</v>
+        <v>1.706125536630907</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.046554162371521</v>
@@ -14764,7 +14566,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.680557779938896</v>
+        <v>1.715197702697267</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.241677317073038</v>
@@ -14853,7 +14655,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.697931940782343</v>
+        <v>1.733967933083385</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.234181759561777</v>
@@ -14942,7 +14744,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.700839556760745</v>
+        <v>1.740225935681241</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.069954283805238</v>
@@ -15031,7 +14833,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.733204080059761</v>
+        <v>1.773732399483983</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.300429576717676</v>
@@ -15317,7 +15119,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.345620056682743</v>
+        <v>1.354872400498931</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.845566610884768</v>
@@ -15406,7 +15208,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.338676884456371</v>
+        <v>1.349270419806792</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.772200364829053</v>
@@ -15495,7 +15297,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.359700287587211</v>
+        <v>1.369375623176779</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.786130121945877</v>
@@ -15584,7 +15386,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.446931406616272</v>
+        <v>1.454613630809105</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.383307439900902</v>
@@ -15673,7 +15475,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.462311003076825</v>
+        <v>1.469265483413519</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.529304292777665</v>
@@ -15762,7 +15564,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.502635509246385</v>
+        <v>1.50384989425372</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.609386121111976</v>
@@ -15851,7 +15653,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.534147843121469</v>
+        <v>1.528985574240061</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.640967875782366</v>
@@ -15940,7 +15742,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.531424887392126</v>
+        <v>1.529770070107129</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.670570810518817</v>
@@ -16029,7 +15831,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.550112657711307</v>
+        <v>1.54634909063542</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.694983753104951</v>
@@ -16118,7 +15920,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.584166769998629</v>
+        <v>1.574842705306719</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.5793638470876</v>
@@ -16207,7 +16009,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.553405891340741</v>
+        <v>1.546593485466294</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.492852730648208</v>
@@ -16296,7 +16098,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.553599503479147</v>
+        <v>1.554495069056919</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.65718735744019</v>
@@ -16385,7 +16187,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.534432096345908</v>
+        <v>1.539083498839684</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.708183266024127</v>
@@ -16474,7 +16276,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.539161032178586</v>
+        <v>1.540036808348091</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.673210317484638</v>
@@ -16563,7 +16365,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.519012623165461</v>
+        <v>1.519163428395065</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.443426104876895</v>
@@ -16652,7 +16454,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.53818550165377</v>
+        <v>1.540863382168098</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.74570044575765</v>
@@ -16741,7 +16543,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.433354290483175</v>
+        <v>1.447965804169912</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.785515954479563</v>
@@ -16830,7 +16632,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.435994101556251</v>
+        <v>1.450792553577668</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.814233755431357</v>
@@ -16919,7 +16721,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.435883280349812</v>
+        <v>1.44698748186763</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.800766402045651</v>
@@ -17008,7 +16810,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.433543258142226</v>
+        <v>1.446305271116327</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.801785615354679</v>
@@ -17097,7 +16899,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.429392355248259</v>
+        <v>1.442533357894059</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.809257235913319</v>
@@ -17186,7 +16988,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.430068302087041</v>
+        <v>1.443776578273101</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.807491765849213</v>
@@ -17275,7 +17077,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.431943029999082</v>
+        <v>1.445884147243731</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.809771215739065</v>
@@ -17364,7 +17166,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.430394385717074</v>
+        <v>1.441610384410532</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.825852316946941</v>
@@ -17453,7 +17255,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.432901135961188</v>
+        <v>1.444753841707996</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.829937346676119</v>
@@ -17542,7 +17344,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.451004871259199</v>
+        <v>1.459080556715658</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.800580280742648</v>
@@ -17631,7 +17433,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.445930089558463</v>
+        <v>1.451779496054833</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.781833169594531</v>
@@ -17720,7 +17522,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.458894588408518</v>
+        <v>1.462733268354774</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.795352367442808</v>
@@ -17809,7 +17611,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.450659178783262</v>
+        <v>1.459573306685049</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.818351679601919</v>
@@ -17898,7 +17700,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.463746610282298</v>
+        <v>1.474469268365782</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.813426944052354</v>
@@ -17987,7 +17789,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.506415517054332</v>
+        <v>1.506452694445196</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.638007984331819</v>
@@ -18076,7 +17878,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.577252114518217</v>
+        <v>1.564137027558661</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.633495152036343</v>
@@ -18165,7 +17967,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.565365402738142</v>
+        <v>1.55473480403705</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.541515360655566</v>
@@ -18254,7 +18056,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.570512535626813</v>
+        <v>1.561001543874073</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.46968725198234</v>
@@ -18343,7 +18145,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.578173824671858</v>
+        <v>1.560567371896191</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.560917072951668</v>
@@ -18432,7 +18234,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.57310314880712</v>
+        <v>1.558585210228543</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.567100248195873</v>
@@ -18521,7 +18323,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.56366669555373</v>
+        <v>1.549340682704202</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.601055833917025</v>
@@ -18610,7 +18412,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.550867182407931</v>
+        <v>1.539381150146364</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.670004166352354</v>
@@ -18699,7 +18501,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.543359864876089</v>
+        <v>1.533976076280223</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.525736756718167</v>
@@ -18788,7 +18590,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.458139411279465</v>
+        <v>1.461809376107797</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.825854853000788</v>
@@ -18877,7 +18679,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.449151950666427</v>
+        <v>1.460176666363458</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.852972045630946</v>
@@ -18966,7 +18768,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.437771855047294</v>
+        <v>1.449778390122248</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.830389434411232</v>
@@ -19055,7 +18857,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.431625640202185</v>
+        <v>1.44282343078942</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.868330793375342</v>
@@ -19144,7 +18946,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.414452065371541</v>
+        <v>1.331935481131463</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.429547695098212</v>
@@ -19233,7 +19035,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.282212904776471</v>
+        <v>1.2867824270901</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.460683119723982</v>
@@ -19322,7 +19124,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.260509738941936</v>
+        <v>1.246552399570628</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.517654799495651</v>
@@ -19411,7 +19213,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.229418343861328</v>
+        <v>1.217325852395588</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.541528663027463</v>
@@ -19500,7 +19302,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.22597546057636</v>
+        <v>1.214246577764913</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.541455904136304</v>
@@ -19589,7 +19391,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.226897969126657</v>
+        <v>1.216992793451918</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.540595066161724</v>
@@ -19678,7 +19480,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.225541949204341</v>
+        <v>1.214830771847082</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.544961466104978</v>
@@ -19767,7 +19569,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.224035504504501</v>
+        <v>1.21216711455467</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.549323399898088</v>
@@ -19856,7 +19658,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.2279320028425</v>
+        <v>1.216418209739091</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.554493745042625</v>
@@ -19945,7 +19747,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.227133887675939</v>
+        <v>1.21602700956423</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.543476435911523</v>
@@ -20034,7 +19836,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.22376884069374</v>
+        <v>1.211499509333886</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.540602346940044</v>
@@ -20123,7 +19925,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.230689179703058</v>
+        <v>1.215995849311883</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.531435533729681</v>
@@ -20212,7 +20014,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.233654282122112</v>
+        <v>1.219447973246819</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.523498457751355</v>
@@ -20301,7 +20103,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.234447199646287</v>
+        <v>1.219372592622647</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.528460175488469</v>
@@ -20390,7 +20192,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.237965323041953</v>
+        <v>1.222453420408057</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.516228184426113</v>
@@ -20479,7 +20281,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.292107502418401</v>
+        <v>1.285171438565727</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.579788200369027</v>
@@ -20568,7 +20370,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.311438563244005</v>
+        <v>1.295640188979967</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.615498878258188</v>
@@ -20657,7 +20459,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.365485590448468</v>
+        <v>1.374465615487985</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.76331487618251</v>
@@ -20746,7 +20548,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.513597026750598</v>
+        <v>1.518731380908379</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.423630642750976</v>
@@ -20835,7 +20637,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.52572169266412</v>
+        <v>1.528464698468925</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.859946855792423</v>
@@ -20924,7 +20726,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.52404480925898</v>
+        <v>1.525053175761086</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.896817485644382</v>
@@ -21013,7 +20815,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.546349021303748</v>
+        <v>1.552590647885795</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.843789853568055</v>
@@ -21102,7 +20904,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.544846729183234</v>
+        <v>1.552800921429177</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.657994028364381</v>
@@ -21191,7 +20993,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.532475030250961</v>
+        <v>1.546299586488847</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.663268190708415</v>
@@ -21280,7 +21082,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.555380300522196</v>
+        <v>1.567800562231998</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.664886110679265</v>
@@ -21369,7 +21171,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.616732382467069</v>
+        <v>1.6319271786704</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.030376267596296</v>
@@ -21458,7 +21260,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.630806560810693</v>
+        <v>1.648772559877183</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.900784360026442</v>
@@ -21547,7 +21349,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.64471963340596</v>
+        <v>1.665012745595835</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.932250084613735</v>
@@ -21636,7 +21438,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.637951945382633</v>
+        <v>1.661599942507118</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.977429248997371</v>
@@ -21725,7 +21527,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.634725239716853</v>
+        <v>1.658124132465629</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.221060586857726</v>
@@ -21814,7 +21616,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.628194292891357</v>
+        <v>1.654853550430398</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.188327149578776</v>
@@ -21903,7 +21705,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.638220650641462</v>
+        <v>1.668866101154741</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.802750666527095</v>
@@ -21992,7 +21794,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.663198370633773</v>
+        <v>1.690189321962455</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.237023176934207</v>
@@ -22278,7 +22080,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.411330538601492</v>
+        <v>1.428916842054576</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.447214548114462</v>
@@ -22367,7 +22169,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.425632082179222</v>
+        <v>1.439184268558433</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.284610920597577</v>
@@ -22456,7 +22258,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.421920580623325</v>
+        <v>1.432305155508001</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.424046853967324</v>
@@ -22545,7 +22347,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.418777222569573</v>
+        <v>1.433778320069694</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.268274214090961</v>
@@ -22634,7 +22436,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.416577351430121</v>
+        <v>1.431813383118367</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.349446007021848</v>
@@ -22723,7 +22525,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.411198484190605</v>
+        <v>1.425290120187173</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.431287704103394</v>
@@ -22812,7 +22614,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.410542645521891</v>
+        <v>1.425111037468598</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.418184036734401</v>
@@ -22901,7 +22703,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.390310846137003</v>
+        <v>1.405269138817886</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.408710619231197</v>
@@ -22990,7 +22792,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.380177427551322</v>
+        <v>1.397725477965655</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.334995631819752</v>
@@ -23079,7 +22881,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.379682375222107</v>
+        <v>1.394876483428651</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.318293372110242</v>
@@ -23168,7 +22970,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.385363943222804</v>
+        <v>1.401735969276984</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.113099381578293</v>
@@ -23257,7 +23059,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.390491334954373</v>
+        <v>1.40808395711812</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.262362010183963</v>
@@ -23346,7 +23148,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.370105989489274</v>
+        <v>1.389150942795137</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.320803140130732</v>
@@ -23435,7 +23237,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.356845931994973</v>
+        <v>1.373795267421805</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.21416937392378</v>
@@ -23524,7 +23326,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.348145164590475</v>
+        <v>1.364905897849521</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.233982397095595</v>
@@ -23613,7 +23415,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.360684327133947</v>
+        <v>1.380307450363472</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.262224153492668</v>
@@ -23702,7 +23504,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.357381587529994</v>
+        <v>1.376872089252469</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.405280444931553</v>
@@ -23791,7 +23593,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.356054113861218</v>
+        <v>1.376954234544005</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.309460151064544</v>
@@ -23880,7 +23682,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.353780720766341</v>
+        <v>1.374826723787884</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.317727199092035</v>
@@ -23969,7 +23771,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.360068573187143</v>
+        <v>1.384909486376039</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.326268826385191</v>
@@ -24058,7 +23860,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.360404629015702</v>
+        <v>1.387030035300995</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.323795001282482</v>
@@ -24147,7 +23949,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.361056472562808</v>
+        <v>1.387604375554466</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.337155012586143</v>
@@ -24236,7 +24038,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.387744195759706</v>
+        <v>1.413812131567553</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.180057873746084</v>
@@ -24325,7 +24127,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.407411407508925</v>
+        <v>1.434999765301395</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.382220507235654</v>
@@ -24414,7 +24216,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.416162433222005</v>
+        <v>1.443584785962748</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.431206488501708</v>
@@ -24503,7 +24305,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.435299663591444</v>
+        <v>1.459754255750748</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.225692231866422</v>
@@ -24592,7 +24394,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.427936164771868</v>
+        <v>1.453974232058373</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.476062541033472</v>
@@ -24681,7 +24483,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.45897071254836</v>
+        <v>1.482308914544197</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.340149755339716</v>
@@ -24770,7 +24572,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.496520588837917</v>
+        <v>1.519274078411863</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.239203025252683</v>
@@ -24859,7 +24661,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.510472493731321</v>
+        <v>1.53497821168146</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.33788954220607</v>
@@ -24948,7 +24750,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.490888499741319</v>
+        <v>1.51044783281583</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.423421417373537</v>
@@ -25037,7 +24839,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.500291440374957</v>
+        <v>1.517616770605987</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.070422779276007</v>
@@ -25126,7 +24928,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.525862651880719</v>
+        <v>1.544522493641672</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.584697827391638</v>
@@ -25215,7 +25017,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.533486930020973</v>
+        <v>1.554820370420761</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.721272587844849</v>
@@ -25304,7 +25106,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.531328544930414</v>
+        <v>1.547186384840312</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.670874022486988</v>
@@ -25393,7 +25195,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.54419376728641</v>
+        <v>1.560187089217958</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.660015151332682</v>
@@ -25482,7 +25284,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.545504302204421</v>
+        <v>1.563098807875869</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.66564179871183</v>
@@ -25571,7 +25373,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.523293862091664</v>
+        <v>1.542283177207293</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.731952324946932</v>
@@ -25660,7 +25462,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.532308927675438</v>
+        <v>1.547943773222399</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.731993137788533</v>
@@ -25749,7 +25551,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.513925605937043</v>
+        <v>1.529999414469848</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.716234570606369</v>
@@ -25838,7 +25640,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.505881349371718</v>
+        <v>1.524010404314948</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.724349897273536</v>
@@ -25927,7 +25729,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.489470037844662</v>
+        <v>1.508758624742908</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.630527252185144</v>
@@ -26016,7 +25818,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.481250163984295</v>
+        <v>1.502728304752079</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.613211022057624</v>
@@ -26105,7 +25907,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.481017014462525</v>
+        <v>1.475225697204233</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.997458736725485</v>
@@ -26194,7 +25996,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.461573977393436</v>
+        <v>1.486268182814436</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.081037467885146</v>
@@ -26283,7 +26085,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.465552338682419</v>
+        <v>1.486504485754672</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.085966049956014</v>
@@ -26372,7 +26174,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.445422348309177</v>
+        <v>1.467555077051139</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.052433918067539</v>
@@ -26461,7 +26263,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.439149022108861</v>
+        <v>1.461077881006354</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.067657062362668</v>
@@ -26550,7 +26352,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.437176191504653</v>
+        <v>1.457274838759627</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.090552006126912</v>
@@ -26639,7 +26441,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.445597103893545</v>
+        <v>1.464603197041124</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.037161594897912</v>
@@ -26728,7 +26530,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.451685729177153</v>
+        <v>1.470950132035354</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.078643143103625</v>
@@ -26817,7 +26619,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.460303592007628</v>
+        <v>1.477520240904214</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.958726564198258</v>
@@ -26906,7 +26708,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.461298132308783</v>
+        <v>1.478022560334813</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.109325896326898</v>
@@ -26995,7 +26797,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.448725675033544</v>
+        <v>1.468618113952745</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.113575053670957</v>
@@ -27084,7 +26886,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.452801545803221</v>
+        <v>1.470941216809646</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.113532057878484</v>
@@ -27173,7 +26975,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.460552115246996</v>
+        <v>1.478626747303875</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.068006790880752</v>
@@ -27262,7 +27064,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.490534611478197</v>
+        <v>1.505776848709488</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.023515776291605</v>
@@ -27351,7 +27153,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.489279188873433</v>
+        <v>1.504522873270659</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.028444576061752</v>
@@ -27440,7 +27242,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.533786565147776</v>
+        <v>1.553686157333746</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.195415923158651</v>
@@ -27529,7 +27331,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.527949523650105</v>
+        <v>1.537075302240582</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.438004011019749</v>
@@ -27618,7 +27420,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.526551934670166</v>
+        <v>1.544141119141451</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.505475250617895</v>
@@ -27707,7 +27509,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.563676791525365</v>
+        <v>1.576817536584302</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.595768718810672</v>
@@ -27796,7 +27598,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.559703283662604</v>
+        <v>1.572142916901773</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.692569613251884</v>
@@ -27885,7 +27687,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.559902608382398</v>
+        <v>1.575184533892256</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.668987862770888</v>
@@ -27974,7 +27776,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.492880405651295</v>
+        <v>1.513146408283825</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.207077673593987</v>
@@ -28063,7 +27865,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.472833375049406</v>
+        <v>1.497256666103751</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.278326808530269</v>
@@ -28152,7 +27954,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.468657722843355</v>
+        <v>1.49496643200031</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.20179740770672</v>
@@ -28241,7 +28043,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.49508964734088</v>
+        <v>1.519022915815151</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.19580912341006</v>
@@ -28330,7 +28132,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.539084616252814</v>
+        <v>1.56536126905183</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.364203263150899</v>
@@ -28419,7 +28221,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.562429102293981</v>
+        <v>1.593053772620834</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.401094975039736</v>
@@ -28508,7 +28310,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.568390244560466</v>
+        <v>1.603240810539103</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.497896012576743</v>
@@ -28597,7 +28399,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.579408572415052</v>
+        <v>1.617571262147699</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.530668432922989</v>
@@ -28686,7 +28488,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.585221267108952</v>
+        <v>1.626852910028742</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.46562739382019</v>
@@ -28775,7 +28577,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.570972921436382</v>
+        <v>1.612568582309879</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.459851707493413</v>
@@ -28864,7 +28666,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.574573775518739</v>
+        <v>1.61861826949909</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.41538014663575</v>
@@ -28953,7 +28755,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.606257287553747</v>
+        <v>1.654663850830395</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.580287862707883</v>
@@ -29239,7 +29041,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.171648516399596</v>
+        <v>1.166734172388826</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.682080234689028</v>
@@ -29328,7 +29130,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.199517061906835</v>
+        <v>1.202003251338829</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.572905017559791</v>
@@ -29417,7 +29219,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.183087704359654</v>
+        <v>1.181139746518809</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.617978416047186</v>
@@ -29506,7 +29308,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.182825520755199</v>
+        <v>1.180362896583654</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.58278011085423</v>
@@ -29595,7 +29397,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.182704345674155</v>
+        <v>1.180548907274874</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.565505590877834</v>
@@ -29684,7 +29486,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.190845963055708</v>
+        <v>1.189972174974999</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.577213449791729</v>
@@ -29773,7 +29575,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.190603718025159</v>
+        <v>1.188903816547063</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.597528888074741</v>
@@ -29862,7 +29664,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.160639715678122</v>
+        <v>1.152785277681368</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.653689786596805</v>
@@ -29951,7 +29753,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.149288974255788</v>
+        <v>1.14442867833446</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.647526978551931</v>
@@ -30040,7 +29842,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.166278365096636</v>
+        <v>1.16322422080854</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.602198750252799</v>
@@ -30129,7 +29931,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.15398467128581</v>
+        <v>1.151816423025341</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.652486302646953</v>
@@ -30218,7 +30020,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.143573191962735</v>
+        <v>1.142293607809647</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.641109696140277</v>
@@ -30307,7 +30109,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.122196681165806</v>
+        <v>1.115003058146398</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.697473923734691</v>
@@ -30396,7 +30198,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.119092378654111</v>
+        <v>1.11316967294747</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.696112288420807</v>
@@ -30485,7 +30287,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.124644770042816</v>
+        <v>1.11848643486586</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.710233832542531</v>
@@ -30574,7 +30376,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.14062033673327</v>
+        <v>1.136918874328713</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.655014571872806</v>
@@ -30663,7 +30465,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.147943405373841</v>
+        <v>1.147061679841422</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.616939463120687</v>
@@ -30752,7 +30554,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.156825017225352</v>
+        <v>1.15793017720874</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.628018540559805</v>
@@ -30841,7 +30643,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.154672207398993</v>
+        <v>1.153841083800951</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.63110233417054</v>
@@ -30930,7 +30732,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.150767668202977</v>
+        <v>1.150079968434764</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.638781425108483</v>
@@ -31019,7 +30821,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.148147946049668</v>
+        <v>1.147663520972241</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.644829433152541</v>
@@ -31108,7 +30910,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.147266398253675</v>
+        <v>1.145616179419671</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.627565707174555</v>
@@ -31197,7 +30999,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.180718337261705</v>
+        <v>1.18631624405018</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.546519960553697</v>
@@ -31286,7 +31088,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.186414853621258</v>
+        <v>1.191563069459232</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.586645683453125</v>
@@ -31375,7 +31177,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.180811551937078</v>
+        <v>1.184766001617994</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.570658773515725</v>
@@ -31464,7 +31266,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.20181010427769</v>
+        <v>1.207117890794672</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.547888353957507</v>
@@ -31553,7 +31355,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.228126709538528</v>
+        <v>1.233357275092588</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.616750742970579</v>
@@ -31642,7 +31444,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.3165810481195</v>
+        <v>1.330250270920069</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.859738247411441</v>
@@ -31731,7 +31533,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.345868990003697</v>
+        <v>1.362007596804691</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.152807984342409</v>
@@ -31820,7 +31622,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.331906833104028</v>
+        <v>1.347302486599748</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.130581476209613</v>
@@ -31909,7 +31711,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.262003347381112</v>
+        <v>1.256628007753714</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.549311669620801</v>
@@ -31998,7 +31800,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.233337584793809</v>
+        <v>1.240035870095992</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.588554028695532</v>
@@ -32087,7 +31889,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.221199533016735</v>
+        <v>1.227095432420704</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.579003557865867</v>
@@ -32176,7 +31978,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.231332040283819</v>
+        <v>1.238800770885812</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.583368766384862</v>
@@ -32265,7 +32067,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.239019934179159</v>
+        <v>1.246284865248523</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.578070954624615</v>
@@ -32354,7 +32156,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.242622962238243</v>
+        <v>1.250502824225338</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.576603437503247</v>
@@ -32443,7 +32245,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.289333026997972</v>
+        <v>1.300972436561972</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.622978118701007</v>
@@ -32532,7 +32334,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.184781600784182</v>
+        <v>1.186311097168055</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.632604916786933</v>
@@ -32621,7 +32423,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.185729736319711</v>
+        <v>1.189354389017591</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.62915521851406</v>
@@ -32710,7 +32512,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.198716408499614</v>
+        <v>1.201062931612509</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.626882712127995</v>
@@ -32799,7 +32601,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.200866290790457</v>
+        <v>1.203711771663704</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.661980987969452</v>
@@ -32888,7 +32690,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.161996458327947</v>
+        <v>1.159688423727607</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.689700390681194</v>
@@ -32977,7 +32779,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.15567999231625</v>
+        <v>1.154322161928522</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.694688993763057</v>
@@ -33066,7 +32868,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.157654144234959</v>
+        <v>1.148802400400913</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.709348580346983</v>
@@ -33155,7 +32957,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.15149997727656</v>
+        <v>1.148223717371143</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.73335697088783</v>
@@ -33244,7 +33046,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.177127878277997</v>
+        <v>1.178940224052612</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.703535867003938</v>
@@ -33333,7 +33135,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.180002898818284</v>
+        <v>1.179819377486654</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.657511869096695</v>
@@ -33422,7 +33224,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.175086580352471</v>
+        <v>1.175128107464886</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.667601480246302</v>
@@ -33511,7 +33313,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.169642356558298</v>
+        <v>1.171613908277779</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.670221722430228</v>
@@ -33600,7 +33402,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.166072419155071</v>
+        <v>1.168451520990984</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.679842369870284</v>
@@ -33689,7 +33491,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.165934800414257</v>
+        <v>1.168085791010763</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.658485902935788</v>
@@ -33778,7 +33580,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.19055553588861</v>
+        <v>1.195501932748439</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.481469937450941</v>
@@ -33867,7 +33669,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.214498723798655</v>
+        <v>1.220586460573848</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.61384781092567</v>
@@ -33956,7 +33758,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.190441701180467</v>
+        <v>1.181465748923618</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.66803947730834</v>
@@ -34045,7 +33847,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.170672699513083</v>
+        <v>1.169911652368582</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.679085716377517</v>
@@ -34134,7 +33936,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.172364342714774</v>
+        <v>1.171426031076014</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.609127605811211</v>
@@ -34223,7 +34025,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.21750497117295</v>
+        <v>1.224128265721161</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.610825760056258</v>
@@ -34312,7 +34114,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.227574193426888</v>
+        <v>1.235391922805124</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.611945398752744</v>
@@ -34401,7 +34203,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.237268962649575</v>
+        <v>1.248288153842011</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.615009295710597</v>
@@ -34490,7 +34292,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.245806571255648</v>
+        <v>1.254099346553078</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.606952251270931</v>
@@ -34579,7 +34381,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.187593398749988</v>
+        <v>1.191821981392738</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.652834712584006</v>
@@ -34668,7 +34470,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.189730403403602</v>
+        <v>1.195150630502248</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.669400096884784</v>
@@ -34757,7 +34559,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.200947977796482</v>
+        <v>1.206506261292374</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.663919956717812</v>
@@ -34846,7 +34648,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.195785012841225</v>
+        <v>1.200665482743167</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.644962772779786</v>
@@ -34935,7 +34737,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.199296866905281</v>
+        <v>1.194875010803723</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.619759218462768</v>
@@ -35024,7 +34826,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.154469639677721</v>
+        <v>1.151700643683407</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.675052696906369</v>
@@ -35113,7 +34915,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.15443505231242</v>
+        <v>1.154196826154569</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.685595242979756</v>
@@ -35202,7 +35004,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.161603245278656</v>
+        <v>1.158747433457044</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.682232802158498</v>
@@ -35291,7 +35093,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.198827955887131</v>
+        <v>1.209253535542683</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.665526636179865</v>
@@ -35380,7 +35182,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.201956992149684</v>
+        <v>1.212608178898402</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.638999048892825</v>
@@ -35469,7 +35271,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.205545641612656</v>
+        <v>1.21809097460896</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.655887427000721</v>
@@ -35558,7 +35360,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.207128811552882</v>
+        <v>1.220321824944331</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.65762292067446</v>
@@ -35647,7 +35449,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.196461619997702</v>
+        <v>1.205828838229206</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.679148493693736</v>
@@ -35736,7 +35538,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.196758409241123</v>
+        <v>1.210199288192962</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.695853491748724</v>
@@ -35825,7 +35627,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.196360827777477</v>
+        <v>1.208973294609265</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.632986551744649</v>
@@ -35914,7 +35716,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.257438262522381</v>
+        <v>1.280840940068751</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.615655491704879</v>
@@ -36200,7 +36002,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.631163644955421</v>
+        <v>1.653309617348593</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.462516763089731</v>
@@ -36289,7 +36091,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.646893091509358</v>
+        <v>1.665863358340424</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.6089305383526</v>
@@ -36378,7 +36180,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.639194650426793</v>
+        <v>1.65350497070726</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.677077970845819</v>
@@ -36467,7 +36269,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.657150947399306</v>
+        <v>1.674064702940456</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.629735782795482</v>
@@ -36556,7 +36358,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.649955256787321</v>
+        <v>1.666789775710119</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.663168513849052</v>
@@ -36645,7 +36447,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.649659229964575</v>
+        <v>1.664037039486529</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.652712359868495</v>
@@ -36734,7 +36536,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.659160435355612</v>
+        <v>1.672822528706153</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.622707175881521</v>
@@ -36823,7 +36625,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.634367195700335</v>
+        <v>1.658566530883201</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.596989176694178</v>
@@ -36912,7 +36714,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.641843769004645</v>
+        <v>1.667511017363868</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.646849925728809</v>
@@ -37001,7 +36803,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.642132665032349</v>
+        <v>1.663891911553156</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.565320111225399</v>
@@ -37090,7 +36892,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.640896719709127</v>
+        <v>1.662007618452907</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.66631778215519</v>
@@ -37179,7 +36981,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.632604069021377</v>
+        <v>1.654759931333271</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.618105436280626</v>
@@ -37268,7 +37070,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.597324817164678</v>
+        <v>1.62310231430863</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.563918586748399</v>
@@ -37357,7 +37159,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.589146462459961</v>
+        <v>1.617613077900141</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.558541561001183</v>
@@ -37446,7 +37248,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.593998124372322</v>
+        <v>1.620776295948229</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.386847279820909</v>
@@ -37535,7 +37337,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.641079850307505</v>
+        <v>1.663587636539273</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.671162967846464</v>
@@ -37624,7 +37426,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.620617995788942</v>
+        <v>1.645490002757836</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.509541118673946</v>
@@ -37713,7 +37515,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.624927149769398</v>
+        <v>1.650878217079304</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.5651736853539</v>
@@ -37802,7 +37604,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.606643533268604</v>
+        <v>1.636844695197299</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.601836590061689</v>
@@ -37891,7 +37693,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.606254532074864</v>
+        <v>1.640214592024125</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.506410324266088</v>
@@ -37980,7 +37782,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.604866889363005</v>
+        <v>1.638423340384265</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.420144905730156</v>
@@ -38069,7 +37871,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.59559938959216</v>
+        <v>1.624277240613602</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.492685469580206</v>
@@ -38158,7 +37960,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.629939914534309</v>
+        <v>1.654085811831501</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.468950679434593</v>
@@ -38247,7 +38049,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.636683413847524</v>
+        <v>1.662019452811787</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.55841139924671</v>
@@ -38336,7 +38138,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.634205375253813</v>
+        <v>1.658903576403512</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.494374986878591</v>
@@ -38425,7 +38227,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.640839914611794</v>
+        <v>1.66511857507822</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.630567641647533</v>
@@ -38514,7 +38316,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.64473531969572</v>
+        <v>1.664227016514985</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.644409550730097</v>
@@ -38603,7 +38405,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.671792323527445</v>
+        <v>1.686728957511482</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.044666384055516</v>
@@ -38692,7 +38494,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.674556814327736</v>
+        <v>1.692274616869969</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.383137449868567</v>
@@ -38781,7 +38583,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.665779437765557</v>
+        <v>1.68260013088558</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.191918955293552</v>
@@ -38870,7 +38672,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.649292587775769</v>
+        <v>1.662869623526616</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.426964709645354</v>
@@ -38959,7 +38761,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.645993762643425</v>
+        <v>1.668658642840335</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.878093796768447</v>
@@ -39048,7 +38850,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.638911882967735</v>
+        <v>1.663694800964198</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.700100278276623</v>
@@ -39137,7 +38939,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.665914043099882</v>
+        <v>1.686212726900944</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.723681787811487</v>
@@ -39226,7 +39028,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.668338510573292</v>
+        <v>1.689153429112568</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.88091059094745</v>
@@ -39315,7 +39117,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.66839677214612</v>
+        <v>1.692666918797609</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.821470646394602</v>
@@ -39404,7 +39206,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.661051696852949</v>
+        <v>1.687925592600166</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.729053995078851</v>
@@ -39493,7 +39295,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.630870958176489</v>
+        <v>1.661533417094739</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.686155320445022</v>
@@ -39582,7 +39384,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.621799037958782</v>
+        <v>1.64875340864018</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.797170136439176</v>
@@ -39671,7 +39473,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.623392795826082</v>
+        <v>1.650396265539638</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.705416552735719</v>
@@ -39760,7 +39562,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.617373174218508</v>
+        <v>1.646192348472348</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.655761821727982</v>
@@ -39849,7 +39651,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.573623033543963</v>
+        <v>1.606651971383704</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.588638200663493</v>
@@ -39938,7 +39740,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.57285312845785</v>
+        <v>1.607938924698691</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.676295692609383</v>
@@ -40027,7 +39829,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.558811115324122</v>
+        <v>1.567760252067123</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.032937409206028</v>
@@ -40116,7 +39918,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.522244229844216</v>
+        <v>1.560331614122588</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.085368117136549</v>
@@ -40205,7 +40007,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.530917885234618</v>
+        <v>1.56090852634814</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.198621369705851</v>
@@ -40294,7 +40096,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.523517645487857</v>
+        <v>1.555444176159022</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.104397624502012</v>
@@ -40383,7 +40185,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.527049039769062</v>
+        <v>1.556551203076523</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.080456813537732</v>
@@ -40472,7 +40274,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.527822211255525</v>
+        <v>1.559639885639399</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.083245139175382</v>
@@ -40561,7 +40363,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.517516026728471</v>
+        <v>1.549375871022034</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.079373061870339</v>
@@ -40650,7 +40452,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.517986703534942</v>
+        <v>1.549801507473736</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.107263435194377</v>
@@ -40739,7 +40541,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.528628597533572</v>
+        <v>1.561631504717599</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.017724981631081</v>
@@ -40828,7 +40630,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.525150771632565</v>
+        <v>1.557266807640254</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.124037173824119</v>
@@ -40917,7 +40719,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.514612599487931</v>
+        <v>1.545795628236052</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.091982271321881</v>
@@ -41006,7 +40808,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.506054089240219</v>
+        <v>1.540859382492306</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.162061660827911</v>
@@ -41095,7 +40897,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.511948959071961</v>
+        <v>1.542787894267519</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.998710426016526</v>
@@ -41184,7 +40986,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.530688961995778</v>
+        <v>1.563556478288384</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.075471726067637</v>
@@ -41273,7 +41075,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.538212069370853</v>
+        <v>1.569944383198484</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.059106357859779</v>
@@ -41362,7 +41164,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.586398679939183</v>
+        <v>1.618542538072893</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.311164983389933</v>
@@ -41451,7 +41253,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.593726636342721</v>
+        <v>1.619693218979331</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.534640145689979</v>
@@ -41540,7 +41342,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.591159882766689</v>
+        <v>1.622685388592743</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.793090179692802</v>
@@ -41629,7 +41431,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.606179459393783</v>
+        <v>1.634874609965699</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.871989475232263</v>
@@ -41718,7 +41520,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.605216751847363</v>
+        <v>1.632468314749389</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.937950961392676</v>
@@ -41807,7 +41609,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.595466040561929</v>
+        <v>1.618343326485373</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.002278685172389</v>
@@ -41896,7 +41698,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.612678168804451</v>
+        <v>1.632265178728441</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.588058107102718</v>
@@ -41985,7 +41787,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.590302236806798</v>
+        <v>1.610140487345836</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.672079043804799</v>
@@ -42074,7 +41876,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.588220242902016</v>
+        <v>1.607936120246947</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.766913898601437</v>
@@ -42163,7 +41965,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.602475519040582</v>
+        <v>1.619062785824388</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.782904939856067</v>
@@ -42252,7 +42054,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.647350649851032</v>
+        <v>1.669586313087369</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.965366420581628</v>
@@ -42341,7 +42143,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.668220143022143</v>
+        <v>1.688708493995666</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.969156469584909</v>
@@ -42430,7 +42232,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.675427753008533</v>
+        <v>1.6978113440683</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.858375960034942</v>
@@ -42519,7 +42321,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.664749953547038</v>
+        <v>1.691635337960018</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.087622978597057</v>
@@ -42608,7 +42410,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.657996918686385</v>
+        <v>1.68789853740752</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.794794581630536</v>
@@ -42697,7 +42499,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.659890757522797</v>
+        <v>1.690102957496417</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.040158311622311</v>
@@ -42786,7 +42588,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.650960096293492</v>
+        <v>1.684865659316573</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.71357778974894</v>
@@ -42875,7 +42677,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.615861603064554</v>
+        <v>1.654982345130526</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.452811940372024</v>
@@ -43161,7 +42963,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.448210861864515</v>
+        <v>1.45255713302731</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.246564767587042</v>
@@ -43250,7 +43052,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.457422536663584</v>
+        <v>1.462772713783028</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.315061222236506</v>
@@ -43339,7 +43141,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.494570276259239</v>
+        <v>1.492243140306646</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.399447172313454</v>
@@ -43428,7 +43230,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.514978852832921</v>
+        <v>1.511323477069811</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.354431131438788</v>
@@ -43517,7 +43319,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.546264956546815</v>
+        <v>1.542085815349121</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.298740715309735</v>
@@ -43606,7 +43408,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.585290914886538</v>
+        <v>1.577929882359216</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.275471072736095</v>
@@ -43695,7 +43497,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.647360811443765</v>
+        <v>1.63134642264224</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.196224550575405</v>
@@ -43784,7 +43586,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.635690560488817</v>
+        <v>1.62185286265133</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.283603902352718</v>
@@ -43873,7 +43675,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.636146244977559</v>
+        <v>1.622681409033349</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.220833509936539</v>
@@ -43962,7 +43764,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.667411363053722</v>
+        <v>1.652558542109397</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.628253038428933</v>
@@ -44051,7 +43853,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.615496917690673</v>
+        <v>1.60255819444752</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.38800447305458</v>
@@ -44140,7 +43942,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.608199226812755</v>
+        <v>1.598231262510783</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.306727189254534</v>
@@ -44229,7 +44031,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.584412940316121</v>
+        <v>1.579043268185566</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.257907458642851</v>
@@ -44318,7 +44120,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.588586632161452</v>
+        <v>1.582306741440211</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.275697401714935</v>
@@ -44407,7 +44209,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.523459644282778</v>
+        <v>1.526433955017109</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.189793928888683</v>
@@ -44496,7 +44298,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.523271106299396</v>
+        <v>1.526240272840515</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.190425273119837</v>
@@ -44585,7 +44387,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.511291051216425</v>
+        <v>1.514516108541871</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.251977174950053</v>
@@ -44674,7 +44476,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.51561287978121</v>
+        <v>1.517712458194291</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.365667135496792</v>
@@ -44763,7 +44565,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.509759220350515</v>
+        <v>1.512950333415508</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.340626621448536</v>
@@ -44852,7 +44654,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.507664729717794</v>
+        <v>1.510217058531675</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.339294166070801</v>
@@ -44941,7 +44743,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.509888547816441</v>
+        <v>1.513904869173228</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.328451565062307</v>
@@ -45030,7 +44832,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.513099514792952</v>
+        <v>1.518473012237766</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.333462353011987</v>
@@ -45119,7 +44921,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.487278647319358</v>
+        <v>1.496678956330871</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.250210466107675</v>
@@ -45208,7 +45010,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.497304211772437</v>
+        <v>1.506797986296587</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.337178198482994</v>
@@ -45297,7 +45099,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.502807861117147</v>
+        <v>1.507478932534037</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.243744009656846</v>
@@ -45386,7 +45188,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.539994374678473</v>
+        <v>1.543347754326866</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.160643357984021</v>
@@ -45475,7 +45277,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.547687746330649</v>
+        <v>1.551765886189277</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.220871050137939</v>
@@ -45564,7 +45366,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.559016527836842</v>
+        <v>1.555354330273622</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.156091695109939</v>
@@ -45653,7 +45455,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.561830667627604</v>
+        <v>1.562193728769684</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.278366005827448</v>
@@ -45742,7 +45544,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.617810516580129</v>
+        <v>1.611440299792325</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.226024844632921</v>
@@ -45831,7 +45633,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.637116603747452</v>
+        <v>1.629301448409848</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.01728985938685</v>
@@ -45920,7 +45722,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.63622822429653</v>
+        <v>1.630612413708961</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.14243260214494</v>
@@ -46009,7 +45811,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.63060201459258</v>
+        <v>1.626622397719687</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.214691320481839</v>
@@ -46098,7 +45900,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.6275245269723</v>
+        <v>1.617706765123099</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.195914161754635</v>
@@ -46187,7 +45989,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.6369520870597</v>
+        <v>1.626798333701537</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.19304092555391</v>
@@ -46276,7 +46078,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.630633302774258</v>
+        <v>1.627173149726</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.137264412603448</v>
@@ -46365,7 +46167,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.622349723442079</v>
+        <v>1.615500675380941</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.14965736456841</v>
@@ -46454,7 +46256,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.606961367145801</v>
+        <v>1.596615552030112</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.125357969362077</v>
@@ -46543,7 +46345,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.594779781109077</v>
+        <v>1.589218377667932</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.135144087306663</v>
@@ -46632,7 +46434,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.594661778927988</v>
+        <v>1.594112195064763</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.166860628856539</v>
@@ -46721,7 +46523,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.582962368591501</v>
+        <v>1.588079427328554</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.187835802328343</v>
@@ -46810,7 +46612,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.567791439381922</v>
+        <v>1.576270988630944</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.26580162872014</v>
@@ -46899,7 +46701,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.551391357671196</v>
+        <v>1.565742797156399</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.242742666462623</v>
@@ -46988,7 +46790,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.501725329409636</v>
+        <v>1.498406486222276</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.148028142413906</v>
@@ -47077,7 +46879,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.467600862511912</v>
+        <v>1.485201449220889</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.18859079859614</v>
@@ -47166,7 +46968,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.464613823304344</v>
+        <v>1.477640198761141</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.248801258984074</v>
@@ -47255,7 +47057,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.45059467623558</v>
+        <v>1.46484532023726</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.232119844919364</v>
@@ -47344,7 +47146,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.455483120262295</v>
+        <v>1.468200690501208</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.186587290471941</v>
@@ -47433,7 +47235,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.460381793006818</v>
+        <v>1.47607872892801</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.187337740712372</v>
@@ -47522,7 +47324,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.45399341054237</v>
+        <v>1.468059288494279</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.191596613930092</v>
@@ -47611,7 +47413,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.454253059047063</v>
+        <v>1.465605629510988</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.226352186582492</v>
@@ -47700,7 +47502,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.461651768530643</v>
+        <v>1.475315712940132</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.114112117466669</v>
@@ -47789,7 +47591,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.490493275459489</v>
+        <v>1.505753400672057</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.196555237272543</v>
@@ -47878,7 +47680,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.482458850316287</v>
+        <v>1.497200346820425</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.215599256397859</v>
@@ -47967,7 +47769,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.482644812630487</v>
+        <v>1.493251651191645</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.272422624587499</v>
@@ -48056,7 +47858,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.485201477156686</v>
+        <v>1.497559768633722</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.202013618814013</v>
@@ -48145,7 +47947,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.489876448729057</v>
+        <v>1.501993488099351</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.110570287796675</v>
@@ -48234,7 +48036,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.511616301245676</v>
+        <v>1.519920106910004</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.24947795282751</v>
@@ -48323,7 +48125,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.58824516210488</v>
+        <v>1.594083270235827</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.232855159199912</v>
@@ -48412,7 +48214,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.597021619639156</v>
+        <v>1.601352513629339</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.657396290462884</v>
@@ -48501,7 +48303,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.59916713714382</v>
+        <v>1.608193209139413</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.851842482933319</v>
@@ -48590,7 +48392,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.630575003988852</v>
+        <v>1.638188803358603</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.895632700380401</v>
@@ -48679,7 +48481,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.615293402937262</v>
+        <v>1.626077361301734</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.154999065263261</v>
@@ -48768,7 +48570,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.613027948945463</v>
+        <v>1.620913852052889</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.874276893573699</v>
@@ -48857,7 +48659,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.612965252891539</v>
+        <v>1.620904834227337</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.045324810986975</v>
@@ -48946,7 +48748,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.606097308740288</v>
+        <v>1.614426440181815</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.092430526977657</v>
@@ -49035,7 +48837,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.611349781121011</v>
+        <v>1.616550931535622</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.034153113680687</v>
@@ -49124,7 +48926,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.624876307330855</v>
+        <v>1.623371563401944</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.011648972125487</v>
@@ -49213,7 +49015,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.653801691989657</v>
+        <v>1.665564167533943</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.882450929678327</v>
@@ -49302,7 +49104,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.661499294715572</v>
+        <v>1.674653963350699</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.999631015334115</v>
@@ -49391,7 +49193,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.674104534701666</v>
+        <v>1.68617723063094</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.907920724095967</v>
@@ -49480,7 +49282,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.687013432007875</v>
+        <v>1.70303382399951</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.269333446509039</v>
@@ -49569,7 +49371,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.693149926797956</v>
+        <v>1.710730957999125</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.119319561447054</v>
@@ -49658,7 +49460,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.706592623724574</v>
+        <v>1.725434993037228</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.984835537989724</v>
@@ -49747,7 +49549,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.72265700479427</v>
+        <v>1.741170615607251</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.980970910932589</v>
@@ -49836,7 +49638,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.754471769279128</v>
+        <v>1.770135644056862</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.054734715657739</v>
